--- a/51EQ/src/main/resources/excel/Replenish_Order_Template.xlsx
+++ b/51EQ/src/main/resources/excel/Replenish_Order_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="16880" windowHeight="11760"/>
+    <workbookView xWindow="-19520" yWindow="5060" windowWidth="16880" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>&lt;jx:forEach items="${replenishOrderList}" var="order"&gt;</t>
   </si>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t>&lt;/jx:forEach&gt;</t>
-  </si>
-  <si>
-    <t>${order.replenishOrgId}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
@@ -78,6 +74,37 @@
   </si>
   <si>
     <t>${detail.receiptNum}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>${order.replenishOrgName}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货件数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>${order.replenishOrgId}</t>
+  </si>
+  <si>
+    <t>单据页码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：1[商品件数]问题时找[送货司机]确认</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      2[商品明细]问题时找[毕玉文]确认</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>${detail.supplierName}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -207,6 +234,20 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -318,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -448,6 +489,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,7 +658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,6 +697,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,13 +1164,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -1076,140 +1194,154 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="35.25" customHeight="1">
+    <row r="3" spans="1:12" ht="35.25" customHeight="1" thickBot="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="C3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+    <row r="4" spans="1:12" ht="28" thickBot="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="A5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>16</v>
+      <c r="L8" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
+      <c r="A9" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1221,19 +1353,46 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
+  <mergeCells count="10">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
     <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
